--- a/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14690AA7-38B6-4521-B4BC-B59585056589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94768E63-01AB-4759-8AFF-C1BE476CF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E65F883-FF83-4C60-A9DF-92C7A05B3DBB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{603465FE-B210-4DEE-AC99-2852709B46F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>26,55%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>73,45%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>46,23%</t>
   </si>
   <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>53,77%</t>
   </si>
   <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>54,65%</t>
   </si>
   <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>58,88%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>56,83%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>41,12%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>43,17%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
   </si>
   <si>
     <t>44,75%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
   </si>
   <si>
     <t>55,25%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAEFCD9-3651-4B9E-BDE9-962A6E4271AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E085F0-2E2D-4A74-AF0A-5ACF8A7812A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94768E63-01AB-4759-8AFF-C1BE476CF335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC39A72F-9A80-4590-840E-027E03F475DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{603465FE-B210-4DEE-AC99-2852709B46F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D47320D7-D311-4411-82CF-EB74E2B56DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E085F0-2E2D-4A74-AF0A-5ACF8A7812A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD9AF7E-7A8C-4AE1-A1E1-6FBDDFCE31FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC39A72F-9A80-4590-840E-027E03F475DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C7F35E-A72A-4540-A87A-D92C7764D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D47320D7-D311-4411-82CF-EB74E2B56DD2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F87CFDC8-A5A2-41DB-9063-06F31BFB9ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>26,55%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>73,45%</t>
   </si>
   <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>76,35%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,166 +137,166 @@
     <t>46,23%</t>
   </si>
   <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
     <t>42,05%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
   </si>
   <si>
     <t>57,95%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD9AF7E-7A8C-4AE1-A1E1-6FBDDFCE31FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205CB382-B7AF-4FAE-A175-C8DD83992437}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C7F35E-A72A-4540-A87A-D92C7764D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16CD293-9578-43DD-B8F4-213281F350C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F87CFDC8-A5A2-41DB-9063-06F31BFB9ED8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E7769250-0360-4FA3-9B89-C747B57DE5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205CB382-B7AF-4FAE-A175-C8DD83992437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D06E2B-F0A8-4483-AD0F-219294CABE3E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>173</v>
       </c>
       <c r="D4" s="7">
-        <v>143662</v>
+        <v>139679</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>290</v>
       </c>
       <c r="I4" s="7">
-        <v>181113</v>
+        <v>165081</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>463</v>
       </c>
       <c r="N4" s="7">
-        <v>324775</v>
+        <v>304760</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>517</v>
       </c>
       <c r="D5" s="7">
-        <v>397495</v>
+        <v>374818</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>1134</v>
       </c>
       <c r="I5" s="7">
-        <v>651107</v>
+        <v>587235</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1651</v>
       </c>
       <c r="N5" s="7">
-        <v>1048602</v>
+        <v>962053</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>541157</v>
+        <v>514497</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>832220</v>
+        <v>752316</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1373377</v>
+        <v>1266813</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>911</v>
       </c>
       <c r="D7" s="7">
-        <v>998005</v>
+        <v>984338</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>1284</v>
       </c>
       <c r="I7" s="7">
-        <v>886152</v>
+        <v>819904</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>2195</v>
       </c>
       <c r="N7" s="7">
-        <v>1884157</v>
+        <v>1804242</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1078</v>
       </c>
       <c r="D8" s="7">
-        <v>1160808</v>
+        <v>1303061</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>1632</v>
       </c>
       <c r="I8" s="7">
-        <v>1359684</v>
+        <v>1414447</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>2710</v>
       </c>
       <c r="N8" s="7">
-        <v>2520493</v>
+        <v>2717508</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2158813</v>
+        <v>2287399</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2245836</v>
+        <v>2234351</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4905</v>
       </c>
       <c r="N9" s="7">
-        <v>4404650</v>
+        <v>4521750</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>372</v>
       </c>
       <c r="D10" s="7">
-        <v>367841</v>
+        <v>354776</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>600</v>
       </c>
       <c r="I10" s="7">
-        <v>419913</v>
+        <v>390391</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>972</v>
       </c>
       <c r="N10" s="7">
-        <v>787755</v>
+        <v>745167</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>309</v>
       </c>
       <c r="D11" s="7">
-        <v>305198</v>
+        <v>291847</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>403</v>
       </c>
       <c r="I11" s="7">
-        <v>293277</v>
+        <v>269478</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>598475</v>
+        <v>561325</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713190</v>
+        <v>659869</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386230</v>
+        <v>1306492</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>1456</v>
       </c>
       <c r="D13" s="7">
-        <v>1509509</v>
+        <v>1478793</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>2174</v>
       </c>
       <c r="I13" s="7">
-        <v>1487177</v>
+        <v>1375375</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>3630</v>
       </c>
       <c r="N13" s="7">
-        <v>2996686</v>
+        <v>2854168</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>1904</v>
       </c>
       <c r="D14" s="7">
-        <v>1863501</v>
+        <v>1969726</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>3169</v>
       </c>
       <c r="I14" s="7">
-        <v>2304069</v>
+        <v>2271161</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>5073</v>
       </c>
       <c r="N14" s="7">
-        <v>4167570</v>
+        <v>4240887</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3373010</v>
+        <v>3448519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5343</v>
       </c>
       <c r="I15" s="7">
-        <v>3791246</v>
+        <v>3646536</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8703</v>
       </c>
       <c r="N15" s="7">
-        <v>7164256</v>
+        <v>7095055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
